--- a/Data/Grocery.xlsx
+++ b/Data/Grocery.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 3\Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Smart_grocery_lister\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68504F0F-E1E4-45FA-9A5A-45B9655DC6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E23653-54F6-4550-B0D6-EC3B9ED1F4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D5E85B8B-8FB7-4EA8-8FF1-8A62FBF268DA}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
         <v>6.5</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
         <v>18.989999999999998</v>
@@ -1646,7 +1646,7 @@
         <v>6.5</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>34.04</v>
@@ -1669,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>28.48</v>
@@ -1692,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <v>5.8</v>
@@ -1715,7 +1715,7 @@
         <v>7.26</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>10.77</v>
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>39.49</v>
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>40.83</v>
@@ -1784,7 +1784,7 @@
         <v>2.5</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>36.4</v>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>22.69</v>
@@ -1830,7 +1830,7 @@
         <v>1.2</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <v>7.59</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4">
         <v>40</v>
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>32.78</v>
@@ -1899,7 +1899,7 @@
         <v>3.1</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>31.62</v>
@@ -1922,7 +1922,7 @@
         <v>1.5</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
         <v>28</v>
@@ -1945,7 +1945,7 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
         <v>42</v>
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="4">
         <v>30</v>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4">
         <v>27</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <v>22.69</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
         <v>44</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
         <v>23</v>
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
         <v>40</v>
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4">
         <v>44</v>
@@ -2129,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4">
         <v>50</v>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>39.25</v>
@@ -2175,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <v>17</v>
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3">
         <v>8.6999999999999993</v>
@@ -2221,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>12.02</v>
@@ -2244,7 +2244,7 @@
         <v>2.5</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>11.91</v>
@@ -2267,7 +2267,7 @@
         <v>22.05</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="3">
         <v>36.99</v>
@@ -2290,7 +2290,7 @@
         <v>22.05</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
         <v>32.99</v>
@@ -2313,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
         <v>15</v>
@@ -2336,7 +2336,7 @@
         <v>7.75</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3">
         <v>10.99</v>
@@ -2359,7 +2359,7 @@
         <v>7.75</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
         <v>10.99</v>
@@ -2382,7 +2382,7 @@
         <v>7.75</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
         <v>10.99</v>
@@ -2405,7 +2405,7 @@
         <v>11.25</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
         <v>14.79</v>
@@ -2428,7 +2428,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
         <v>7</v>
@@ -2451,7 +2451,7 @@
         <v>4.5</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="3">
         <v>10.79</v>
@@ -2474,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3">
         <v>22.58</v>
@@ -2520,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <v>9.19</v>
@@ -2543,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>4.49</v>
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>10.99</v>
@@ -2589,7 +2589,7 @@
         <v>1.25</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>1.79</v>
@@ -2612,7 +2612,7 @@
         <v>1.5</v>
       </c>
       <c r="E45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>1.45</v>
@@ -2635,7 +2635,7 @@
         <v>1.5</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>1.45</v>
@@ -2658,7 +2658,7 @@
         <v>1.4375</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>3.79</v>
@@ -2681,7 +2681,7 @@
         <v>0.79374999999999996</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -2704,7 +2704,7 @@
         <v>0.79374999999999996</v>
       </c>
       <c r="E49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4">
         <v>5</v>
@@ -2727,7 +2727,7 @@
         <v>2.625</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="3">
         <v>5.49</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3">
         <v>2.99</v>
@@ -2773,7 +2773,7 @@
         <v>0.5</v>
       </c>
       <c r="E52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>3.39</v>
@@ -2796,7 +2796,7 @@
         <v>4.5</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="3">
         <v>11.34</v>
@@ -2819,7 +2819,7 @@
         <v>1.75</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="4">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>0.6875</v>
       </c>
       <c r="E55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="3">
         <v>3.49</v>
@@ -2865,7 +2865,7 @@
         <v>1.53125</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="3">
         <v>6.49</v>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>5.66</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>2.4900000000000002</v>
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>5.0999999999999996</v>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="3">
         <v>1.99</v>
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3">
         <v>4.99</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>3.49</v>
@@ -3026,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="3">
         <v>5.29</v>
@@ -3049,7 +3049,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="3">
         <v>4.49</v>
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="3">
         <v>6.49</v>
@@ -3095,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="3">
         <v>6.89</v>
@@ -3118,7 +3118,7 @@
         <v>2.5</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="3">
         <v>1.99</v>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="3">
         <v>6.49</v>
@@ -3164,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="3">
         <v>7.99</v>
@@ -3187,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" s="3">
         <v>4.79</v>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3">
         <v>6.19</v>
@@ -3233,7 +3233,7 @@
         <v>2.5</v>
       </c>
       <c r="E72" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3">
         <v>8.49</v>
@@ -3256,7 +3256,7 @@
         <v>1.5</v>
       </c>
       <c r="E73" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" s="3">
         <v>5.59</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="3">
         <v>6.79</v>
@@ -3302,7 +3302,7 @@
         <v>0.5</v>
       </c>
       <c r="E75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="3">
         <v>3.49</v>
@@ -3325,7 +3325,7 @@
         <v>0.44</v>
       </c>
       <c r="E76" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="3">
         <v>5.29</v>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" s="3">
         <v>8.5</v>
@@ -3371,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" s="3">
         <v>1.18</v>
@@ -3394,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="3">
         <v>9.49</v>
@@ -3417,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" s="3">
         <v>7.99</v>
@@ -3440,7 +3440,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E81" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" s="3">
         <v>7.79</v>
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" s="3">
         <v>7.49</v>
@@ -3486,7 +3486,7 @@
         <v>2.5</v>
       </c>
       <c r="E83" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>4.99</v>
@@ -3509,7 +3509,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" s="3">
         <v>8.99</v>
@@ -3532,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" s="3">
         <v>4.99</v>
@@ -3555,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" s="3">
         <v>7.99</v>
@@ -3578,7 +3578,7 @@
         <v>2.5</v>
       </c>
       <c r="E87" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" s="3">
         <v>6.99</v>
@@ -3601,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="3">
         <v>6.49</v>
@@ -3624,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" s="3">
         <v>6.29</v>
@@ -3647,7 +3647,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" s="3">
         <v>2.99</v>
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>2.99</v>
@@ -3693,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" s="3">
         <v>5.69</v>
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" s="3">
         <v>8.99</v>
@@ -3739,7 +3739,7 @@
         <v>2.5</v>
       </c>
       <c r="E94" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>8.2899999999999991</v>
@@ -3762,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" s="3">
         <v>12.02</v>
@@ -3785,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" s="3">
         <v>13.49</v>
@@ -3808,7 +3808,7 @@
         <v>3.5</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="3">
         <v>24.99</v>
@@ -3831,7 +3831,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" s="3">
         <v>5.99</v>
@@ -3854,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" s="3">
         <v>14.18</v>
@@ -3877,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>12.99</v>
@@ -3900,7 +3900,7 @@
         <v>2.5</v>
       </c>
       <c r="E101" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>16.989999999999998</v>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" s="3">
         <v>3.49</v>
@@ -3946,7 +3946,7 @@
         <v>0.75</v>
       </c>
       <c r="E103" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F103" s="3">
         <v>4.79</v>
@@ -3969,7 +3969,7 @@
         <v>0.81</v>
       </c>
       <c r="E104" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="3">
         <v>4.49</v>
@@ -3992,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" s="3">
         <v>10.99</v>
@@ -4015,7 +4015,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E106" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" s="3">
         <v>3.79</v>
@@ -4038,7 +4038,7 @@
         <v>15</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107" s="3">
         <v>14.99</v>
@@ -4061,7 +4061,7 @@
         <v>4.78</v>
       </c>
       <c r="E108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F108" s="3">
         <v>10.79</v>
@@ -4084,7 +4084,7 @@
         <v>1.59</v>
       </c>
       <c r="E109" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F109" s="3">
         <v>29.99</v>
